--- a/healthman-mock/v2/data/classes/信息科学与技术学院.xlsx
+++ b/healthman-mock/v2/data/classes/信息科学与技术学院.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -452,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>录入年份</t>
+          <t>年级</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>年级</t>
+          <t>教师工号</t>
         </is>
       </c>
     </row>
@@ -477,12 +476,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2019</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000900</t>
         </is>
       </c>
     </row>
@@ -502,12 +503,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2019</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000861</t>
         </is>
       </c>
     </row>
@@ -527,12 +530,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2019</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000171</t>
         </is>
       </c>
     </row>
@@ -552,12 +557,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2019</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000119</t>
         </is>
       </c>
     </row>
@@ -577,12 +584,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2019</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000549</t>
         </is>
       </c>
     </row>
@@ -602,12 +611,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2019</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000523</t>
         </is>
       </c>
     </row>
@@ -627,12 +638,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2019</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000326</t>
         </is>
       </c>
     </row>
@@ -652,12 +665,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2019</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000254</t>
         </is>
       </c>
     </row>
@@ -677,12 +692,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2019</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001009</t>
         </is>
       </c>
     </row>
@@ -702,12 +719,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2019</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000255</t>
         </is>
       </c>
     </row>
@@ -727,12 +746,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2019</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000710</t>
         </is>
       </c>
     </row>
@@ -752,12 +773,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2019</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000312</t>
         </is>
       </c>
     </row>
@@ -777,12 +800,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2019</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000817</t>
         </is>
       </c>
     </row>
@@ -802,12 +827,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2019</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000737</t>
         </is>
       </c>
     </row>
@@ -827,12 +854,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2019</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000334</t>
         </is>
       </c>
     </row>
@@ -852,12 +881,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>2019</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000745</t>
         </is>
       </c>
     </row>
@@ -877,12 +908,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2019</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000496</t>
         </is>
       </c>
     </row>
@@ -902,12 +935,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2019</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000509</t>
         </is>
       </c>
     </row>
@@ -927,12 +962,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2019</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000055</t>
         </is>
       </c>
     </row>
@@ -952,12 +989,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2019</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000788</t>
         </is>
       </c>
     </row>
@@ -977,12 +1016,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2019</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000752</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1043,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2020</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000465</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1070,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2020</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000082</t>
         </is>
       </c>
     </row>
@@ -1052,12 +1097,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>2020</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000017</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1124,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>2020</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000159</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1151,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>2020</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000472</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1178,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>2020</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000208</t>
         </is>
       </c>
     </row>
@@ -1152,12 +1205,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>2020</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000426</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1232,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>2020</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000382</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1259,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>2020</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000379</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1286,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>2020</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000285</t>
         </is>
       </c>
     </row>
@@ -1252,12 +1313,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>2020</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000673</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1340,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>2020</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000929</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1367,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2020</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000405</t>
         </is>
       </c>
     </row>
@@ -1327,12 +1394,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>2020</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000515</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1421,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>2020</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000817</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1448,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>2020</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000811</t>
         </is>
       </c>
     </row>
@@ -1402,12 +1475,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>2020</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000890</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1502,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>2020</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000928</t>
         </is>
       </c>
     </row>
@@ -1452,12 +1529,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>2021</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000236</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1556,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>2021</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000439</t>
         </is>
       </c>
     </row>
@@ -1502,12 +1583,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>2021</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000404</t>
         </is>
       </c>
     </row>
@@ -1527,12 +1610,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>2021</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000882</t>
         </is>
       </c>
     </row>
@@ -1552,12 +1637,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>2021</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000664</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1664,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>2021</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000419</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1691,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>2021</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000730</t>
         </is>
       </c>
     </row>
@@ -1627,12 +1718,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>2021</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000197</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1745,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>2021</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000153</t>
         </is>
       </c>
     </row>
@@ -1677,12 +1772,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>2021</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000910</t>
         </is>
       </c>
     </row>
@@ -1702,12 +1799,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>2021</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001003</t>
         </is>
       </c>
     </row>
@@ -1727,12 +1826,14 @@
           <t>信息科学与技术学院</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>2021</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000328</t>
         </is>
       </c>
     </row>

--- a/healthman-mock/v2/data/classes/信息科学与技术学院.xlsx
+++ b/healthman-mock/v2/data/classes/信息科学与技术学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -483,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000900</t>
+          <t>000121</t>
         </is>
       </c>
     </row>
@@ -510,7 +511,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000861</t>
+          <t>000073</t>
         </is>
       </c>
     </row>
@@ -537,7 +538,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000171</t>
+          <t>000057</t>
         </is>
       </c>
     </row>
@@ -564,7 +565,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000119</t>
+          <t>000136</t>
         </is>
       </c>
     </row>
@@ -591,7 +592,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000549</t>
+          <t>000184</t>
         </is>
       </c>
     </row>
@@ -618,7 +619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>000138</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000326</t>
+          <t>000030</t>
         </is>
       </c>
     </row>
@@ -672,7 +673,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000254</t>
+          <t>000127</t>
         </is>
       </c>
     </row>
@@ -699,7 +700,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>001009</t>
+          <t>000070</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000255</t>
+          <t>000136</t>
         </is>
       </c>
     </row>
@@ -753,7 +754,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000710</t>
+          <t>000001</t>
         </is>
       </c>
     </row>
@@ -780,7 +781,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000312</t>
+          <t>000065</t>
         </is>
       </c>
     </row>
@@ -807,7 +808,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000817</t>
+          <t>000227</t>
         </is>
       </c>
     </row>
@@ -834,7 +835,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>000737</t>
+          <t>000060</t>
         </is>
       </c>
     </row>
@@ -861,7 +862,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>000334</t>
+          <t>000079</t>
         </is>
       </c>
     </row>
@@ -888,7 +889,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>000745</t>
+          <t>000113</t>
         </is>
       </c>
     </row>
@@ -915,7 +916,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000496</t>
+          <t>000142</t>
         </is>
       </c>
     </row>
@@ -942,7 +943,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000509</t>
+          <t>000018</t>
         </is>
       </c>
     </row>
@@ -969,7 +970,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000055</t>
+          <t>000125</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>000147</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>000752</t>
+          <t>000027</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1051,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>000465</t>
+          <t>000221</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1078,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>000082</t>
+          <t>000172</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1105,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>000017</t>
+          <t>000011</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1132,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>000159</t>
+          <t>000080</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1159,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>000472</t>
+          <t>000114</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1186,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>000208</t>
+          <t>000075</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>000426</t>
+          <t>000065</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1240,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>000382</t>
+          <t>000104</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>000379</t>
+          <t>000203</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1294,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>000285</t>
+          <t>000223</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1321,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>000673</t>
+          <t>000029</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1348,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>000929</t>
+          <t>000154</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1375,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>000405</t>
+          <t>000117</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1402,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>000515</t>
+          <t>000161</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1429,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>000817</t>
+          <t>000126</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>000811</t>
+          <t>000051</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1483,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>000890</t>
+          <t>000204</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1510,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>000928</t>
+          <t>000142</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>000236</t>
+          <t>000138</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1564,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>000439</t>
+          <t>000079</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1591,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>000404</t>
+          <t>000159</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1618,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>000882</t>
+          <t>000183</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1645,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>000664</t>
+          <t>000197</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1672,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>000419</t>
+          <t>000084</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1699,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>000730</t>
+          <t>000094</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1726,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>000197</t>
+          <t>000071</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1753,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>000153</t>
+          <t>000115</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1780,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>000910</t>
+          <t>000023</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>001003</t>
+          <t>000060</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1834,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>000328</t>
+          <t>000091</t>
         </is>
       </c>
     </row>
